--- a/mim_startex/outs/PO111084_1 - 101423 ARJUN.xlsx
+++ b/mim_startex/outs/PO111084_1 - 101423 ARJUN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,11 @@
           <t>Barcode</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Total Qty.</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -656,6 +661,11 @@
           <t>5711703315180</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -763,6 +773,11 @@
           <t>5711703315197</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -870,6 +885,11 @@
           <t>5711703315203</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -977,6 +997,11 @@
           <t>5711703315210</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1084,6 +1109,11 @@
           <t>5711703315227</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1191,6 +1221,11 @@
           <t>5715524476075</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1298,6 +1333,11 @@
           <t>5715524476082</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1405,6 +1445,11 @@
           <t>5715524476099</t>
         </is>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1512,6 +1557,11 @@
           <t>5715524476105</t>
         </is>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1619,6 +1669,11 @@
           <t>5715524476112</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1726,6 +1781,11 @@
           <t>5715524357282</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1833,6 +1893,11 @@
           <t>5715524357299</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1940,6 +2005,11 @@
           <t>5715524357305</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2047,6 +2117,11 @@
           <t>5715524357312</t>
         </is>
       </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2154,6 +2229,11 @@
           <t>5715524357329</t>
         </is>
       </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2261,6 +2341,11 @@
           <t>5715524476631</t>
         </is>
       </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2368,6 +2453,11 @@
           <t>5715524476648</t>
         </is>
       </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2475,6 +2565,11 @@
           <t>5715524476655</t>
         </is>
       </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2582,6 +2677,11 @@
           <t>5715524476662</t>
         </is>
       </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2689,6 +2789,11 @@
           <t>5715524476679</t>
         </is>
       </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2796,6 +2901,11 @@
           <t>5711703453646</t>
         </is>
       </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2903,6 +3013,11 @@
           <t>5711703453653</t>
         </is>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3010,6 +3125,11 @@
           <t>5711703453660</t>
         </is>
       </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3117,6 +3237,11 @@
           <t>5711703453677</t>
         </is>
       </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3224,6 +3349,11 @@
           <t>5711703453684</t>
         </is>
       </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3331,6 +3461,11 @@
           <t>5711703407533</t>
         </is>
       </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3438,6 +3573,11 @@
           <t>5711703407540</t>
         </is>
       </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3545,6 +3685,11 @@
           <t>5711703407557</t>
         </is>
       </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3652,6 +3797,11 @@
           <t>5711703407564</t>
         </is>
       </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3759,6 +3909,11 @@
           <t>5711703407571</t>
         </is>
       </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3840,7 +3995,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>19-5232TCXRain Forest</t>
+          <t>16-1104TCXCrockery</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3863,7 +4018,12 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>5715524476914</t>
+          <t>5711704085815</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>3656</t>
         </is>
       </c>
     </row>
@@ -3947,7 +4107,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>19-5232TCXRain Forest</t>
+          <t>16-1104TCXCrockery</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3970,7 +4130,12 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>5715524476921</t>
+          <t>5711704085822</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>3656</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4219,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>19-5232TCXRain Forest</t>
+          <t>16-1104TCXCrockery</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -4077,7 +4242,12 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>5715524476938</t>
+          <t>5711704085839</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>3656</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4331,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>19-5232TCXRain Forest</t>
+          <t>16-1104TCXCrockery</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -4184,7 +4354,12 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>5715524476945</t>
+          <t>5711704085846</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>3656</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4443,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>19-5232TCXRain Forest</t>
+          <t>16-1104TCXCrockery</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -4291,542 +4466,12 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>5715524476952</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>PO111084_1</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>SGH Fashion</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Road no 12/B, House no-1237, 4th. Floor Avenue -10, Mirpur DOHS, Dhaka-1216 Dhaka, 1216 Bangladesh</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>DKI EU Lager Robot</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>1713082102</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>TT50 days (B/L)</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>11-06-25</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Collection Sale</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>SCANGLOBAL</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Startex</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>101423</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>USPA T-Shirt Arjun Men</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>6109100010</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>16-1104TCXCrockery</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>5711704085815</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>PO111084_1</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>SGH Fashion</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Road no 12/B, House no-1237, 4th. Floor Avenue -10, Mirpur DOHS, Dhaka-1216 Dhaka, 1216 Bangladesh</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>DKI EU Lager Robot</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>1713082102</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>TT50 days (B/L)</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>11-06-25</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Collection Sale</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>SCANGLOBAL</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Startex</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>101423</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>USPA T-Shirt Arjun Men</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>6109100010</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>16-1104TCXCrockery</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>5711704085822</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>PO111084_1</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>SGH Fashion</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Road no 12/B, House no-1237, 4th. Floor Avenue -10, Mirpur DOHS, Dhaka-1216 Dhaka, 1216 Bangladesh</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>DKI EU Lager Robot</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>1713082102</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>TT50 days (B/L)</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>11-06-25</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Collection Sale</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>SCANGLOBAL</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Startex</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>101423</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>USPA T-Shirt Arjun Men</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>6109100010</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>16-1104TCXCrockery</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>5711704085839</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>PO111084_1</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>SGH Fashion</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Road no 12/B, House no-1237, 4th. Floor Avenue -10, Mirpur DOHS, Dhaka-1216 Dhaka, 1216 Bangladesh</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>DKI EU Lager Robot</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>1713082102</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>TT50 days (B/L)</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>11-06-25</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Collection Sale</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>SCANGLOBAL</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Startex</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>101423</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>USPA T-Shirt Arjun Men</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>6109100010</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>16-1104TCXCrockery</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>5711704085846</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>PO111084_1</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>SGH Fashion</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Road no 12/B, House no-1237, 4th. Floor Avenue -10, Mirpur DOHS, Dhaka-1216 Dhaka, 1216 Bangladesh</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>DKI EU Lager Robot</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1713082102</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>TT50 days (B/L)</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>11-06-25</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Collection Sale</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>SCANGLOBAL</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Startex</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>101423</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>USPA T-Shirt Arjun Men</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>6109100010</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>16-1104TCXCrockery</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
           <t>5711704085853</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>3656</t>
         </is>
       </c>
     </row>
